--- a/biology/Zoologie/Chalcophora/Chalcophora.xlsx
+++ b/biology/Zoologie/Chalcophora/Chalcophora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chalcophora est un genre de coléoptères de la famille des buprestidés.
 </t>
@@ -511,26 +523,63 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Fauna Europaea                                      (28 août 2014)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Fauna Europaea                                      (28 août 2014) :
 Chalcophora detrita (Klug, 1829)
 Chalcophora intermedia Rey, 1890
 Chalcophora mariana (Linnaeus, 1758), est une espèce nordique, de couleur noire, de 3 cm de long. Cette espèce de bupreste est friande de troncs de pins brûlés. Le milieu naturel de ce coléoptère est constitué de sous-bois aérés et ouverts, composés de troncs d'arbres morts. Idéalement, il s'agit d'espaces forestiers précédemment détruits lors d'incendies.
-Selon Catalogue of Life                                   (28 août 2014)[2] :
+Selon Catalogue of Life                                   (28 août 2014) :
 Chalcophora angulicollis
 Chalcophora fortis
 Chalcophora georgiana
 Chalcophora liberta
 Chalcophora virginiensis
-Selon ITIS      (28 août 2014)[3] :
+Selon ITIS      (28 août 2014) :
 Chalcophora angulicollis (LeConte, 1857)
 Chalcophora fortis LeConte, 1860
 Chalcophora georgiana (LeConte, 1857)
 Chalcophora liberta (Germar, 1824)
 Chalcophora virginiensis (Drury, 1770)
-Espèces fossiles
-Selon Fossilworks ou Paleobiology Database, il y a quatre espèces fossiles[4] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Chalcophora</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chalcophora</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Espèces fossiles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Fossilworks ou Paleobiology Database, il y a quatre espèces fossiles :
 †Chalcophora espanoli Fernández de Villalta 1962
 †Chalcophora laevigata Heer 1862
 †Chalcophora oligocenica Théobald 1937
